--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H2">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I2">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J2">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N2">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O2">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P2">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q2">
-        <v>55.48382144995799</v>
+        <v>313.1792471666683</v>
       </c>
       <c r="R2">
-        <v>499.3543930496219</v>
+        <v>2818.613224500014</v>
       </c>
       <c r="S2">
-        <v>0.0002104879327105502</v>
+        <v>0.000838685645613308</v>
       </c>
       <c r="T2">
-        <v>0.0002104879327105502</v>
+        <v>0.000838685645613308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H3">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I3">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J3">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q3">
-        <v>101.1195410208</v>
+        <v>251.7540185596445</v>
       </c>
       <c r="R3">
-        <v>910.0758691871999</v>
+        <v>2265.7861670368</v>
       </c>
       <c r="S3">
-        <v>0.0003836153060456506</v>
+        <v>0.0006741905266764817</v>
       </c>
       <c r="T3">
-        <v>0.0003836153060456505</v>
+        <v>0.0006741905266764818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H4">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I4">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J4">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N4">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q4">
-        <v>4390.458355692228</v>
+        <v>15146.468642201</v>
       </c>
       <c r="R4">
-        <v>39514.12520123005</v>
+        <v>136318.217779809</v>
       </c>
       <c r="S4">
-        <v>0.01665599951104519</v>
+        <v>0.04056183781930384</v>
       </c>
       <c r="T4">
-        <v>0.01665599951104518</v>
+        <v>0.04056183781930384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H5">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I5">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J5">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N5">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q5">
-        <v>8471.475125331648</v>
+        <v>21804.1851442248</v>
       </c>
       <c r="R5">
-        <v>76243.27612798482</v>
+        <v>196237.6662980232</v>
       </c>
       <c r="S5">
-        <v>0.03213807628135639</v>
+        <v>0.05839102450177467</v>
       </c>
       <c r="T5">
-        <v>0.03213807628135638</v>
+        <v>0.05839102450177467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.394747</v>
+        <v>140.4041596666667</v>
       </c>
       <c r="H6">
-        <v>169.184241</v>
+        <v>421.212479</v>
       </c>
       <c r="I6">
-        <v>0.06926838923950532</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="J6">
-        <v>0.0692683892395053</v>
+        <v>0.1168768648170006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N6">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q6">
-        <v>5240.348077836866</v>
+        <v>6128.189046843396</v>
       </c>
       <c r="R6">
-        <v>47163.13270053179</v>
+        <v>55153.70142159056</v>
       </c>
       <c r="S6">
-        <v>0.01988021020834755</v>
+        <v>0.0164111263236323</v>
       </c>
       <c r="T6">
-        <v>0.01988021020834754</v>
+        <v>0.0164111263236323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>939.102844</v>
       </c>
       <c r="I7">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J7">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N7">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O7">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P7">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q7">
-        <v>307.9779429317164</v>
+        <v>698.2402857442339</v>
       </c>
       <c r="R7">
-        <v>2771.801486385448</v>
+        <v>6284.162571698104</v>
       </c>
       <c r="S7">
-        <v>0.00116837014527942</v>
+        <v>0.00186986880561398</v>
       </c>
       <c r="T7">
-        <v>0.001168370145279419</v>
+        <v>0.00186986880561398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>939.102844</v>
       </c>
       <c r="I8">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J8">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q8">
         <v>561.2913353827556</v>
@@ -951,10 +951,10 @@
         <v>5051.6220184448</v>
       </c>
       <c r="S8">
-        <v>0.002129360410757175</v>
+        <v>0.00150312318026015</v>
       </c>
       <c r="T8">
-        <v>0.002129360410757175</v>
+        <v>0.001503123180260151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>939.102844</v>
       </c>
       <c r="I9">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J9">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N9">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q9">
-        <v>24370.42542451773</v>
+        <v>33769.39783981989</v>
       </c>
       <c r="R9">
-        <v>219333.8288206596</v>
+        <v>303924.5805583789</v>
       </c>
       <c r="S9">
-        <v>0.09245362581072279</v>
+        <v>0.09043354400232524</v>
       </c>
       <c r="T9">
-        <v>0.09245362581072276</v>
+        <v>0.09043354400232524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>939.102844</v>
       </c>
       <c r="I10">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J10">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N10">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q10">
-        <v>47023.21171316546</v>
+        <v>48612.9288682448</v>
       </c>
       <c r="R10">
-        <v>423208.9054184891</v>
+        <v>437516.3598142032</v>
       </c>
       <c r="S10">
-        <v>0.1783910762498898</v>
+        <v>0.1301841229962474</v>
       </c>
       <c r="T10">
-        <v>0.1783910762498898</v>
+        <v>0.1301841229962474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>939.102844</v>
       </c>
       <c r="I11">
-        <v>0.3844929110987261</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="J11">
-        <v>0.384492911098726</v>
+        <v>0.2605796400145324</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N11">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q11">
-        <v>29087.96797123992</v>
+        <v>13662.93747071127</v>
       </c>
       <c r="R11">
-        <v>261791.7117411592</v>
+        <v>122966.4372364014</v>
       </c>
       <c r="S11">
-        <v>0.1103504784820769</v>
+        <v>0.03658898103008566</v>
       </c>
       <c r="T11">
-        <v>0.1103504784820769</v>
+        <v>0.03658898103008566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H12">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I12">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J12">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N12">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O12">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P12">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q12">
-        <v>144.1704826954578</v>
+        <v>612.1028531109824</v>
       </c>
       <c r="R12">
-        <v>1297.53434425912</v>
+        <v>5508.925677998841</v>
       </c>
       <c r="S12">
-        <v>0.0005469368559593336</v>
+        <v>0.001639195065405883</v>
       </c>
       <c r="T12">
-        <v>0.0005469368559593335</v>
+        <v>0.001639195065405883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H13">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I13">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J13">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q13">
-        <v>262.7514229902222</v>
+        <v>492.0484177564445</v>
       </c>
       <c r="R13">
-        <v>2364.762806912</v>
+        <v>4428.435759808001</v>
       </c>
       <c r="S13">
-        <v>0.0009967951449027144</v>
+        <v>0.00131769249927168</v>
       </c>
       <c r="T13">
-        <v>0.0009967951449027144</v>
+        <v>0.00131769249927168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H14">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I14">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J14">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N14">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q14">
-        <v>11408.27152587799</v>
+        <v>29603.48348213922</v>
       </c>
       <c r="R14">
-        <v>102674.4437329019</v>
+        <v>266431.351339253</v>
       </c>
       <c r="S14">
-        <v>0.04327934569987178</v>
+        <v>0.07927733680069743</v>
       </c>
       <c r="T14">
-        <v>0.04327934569987177</v>
+        <v>0.07927733680069743</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H15">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I15">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J15">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N15">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q15">
-        <v>22012.48266691897</v>
+        <v>42615.86314318389</v>
       </c>
       <c r="R15">
-        <v>198112.3440022707</v>
+        <v>383542.7682886549</v>
       </c>
       <c r="S15">
-        <v>0.08350834259975258</v>
+        <v>0.114124141420484</v>
       </c>
       <c r="T15">
-        <v>0.08350834259975257</v>
+        <v>0.114124141420484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.5374533333333</v>
+        <v>274.4172466666667</v>
       </c>
       <c r="H16">
-        <v>439.61236</v>
+        <v>823.25174</v>
       </c>
       <c r="I16">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="J16">
-        <v>0.1799886318429477</v>
+        <v>0.2284335985362402</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N16">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q16">
-        <v>13616.64521531487</v>
+        <v>11977.428370214</v>
       </c>
       <c r="R16">
-        <v>122549.8069378339</v>
+        <v>107796.855331926</v>
       </c>
       <c r="S16">
-        <v>0.05165721154246131</v>
+        <v>0.03207523275038129</v>
       </c>
       <c r="T16">
-        <v>0.05165721154246131</v>
+        <v>0.03207523275038129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H17">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I17">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J17">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N17">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O17">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P17">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q17">
-        <v>89.45578389833311</v>
+        <v>205.6458496937236</v>
       </c>
       <c r="R17">
-        <v>805.102055084998</v>
+        <v>1850.812647243512</v>
       </c>
       <c r="S17">
-        <v>0.0003393667294302079</v>
+        <v>0.000550714083958096</v>
       </c>
       <c r="T17">
-        <v>0.0003393667294302078</v>
+        <v>0.000550714083958096</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H18">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I18">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J18">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>5.3792</v>
       </c>
       <c r="O18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q18">
-        <v>163.0336118360889</v>
+        <v>165.3116211527111</v>
       </c>
       <c r="R18">
-        <v>1467.3025065248</v>
+        <v>1487.8045903744</v>
       </c>
       <c r="S18">
-        <v>0.0006184975551596334</v>
+        <v>0.000442700098963007</v>
       </c>
       <c r="T18">
-        <v>0.0006184975551596332</v>
+        <v>0.0004427000989630071</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H19">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I19">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J19">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N19">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q19">
-        <v>7078.674172356097</v>
+        <v>9945.768891024636</v>
       </c>
       <c r="R19">
-        <v>63708.06755120488</v>
+        <v>89511.92001922174</v>
       </c>
       <c r="S19">
-        <v>0.02685423343117488</v>
+        <v>0.0266345030168957</v>
       </c>
       <c r="T19">
-        <v>0.02685423343117488</v>
+        <v>0.0266345030168957</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H20">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I20">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J20">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N20">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q20">
-        <v>13658.44003364599</v>
+        <v>14317.48821618791</v>
       </c>
       <c r="R20">
-        <v>122925.9603028139</v>
+        <v>128857.3939456912</v>
       </c>
       <c r="S20">
-        <v>0.05181576776080803</v>
+        <v>0.03834185041566344</v>
       </c>
       <c r="T20">
-        <v>0.05181576776080801</v>
+        <v>0.03834185041566344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>90.92445633333334</v>
+        <v>92.19491066666667</v>
       </c>
       <c r="H21">
-        <v>272.773369</v>
+        <v>276.584732</v>
       </c>
       <c r="I21">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="J21">
-        <v>0.1116804484057307</v>
+        <v>0.07674596063525065</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N21">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q21">
-        <v>8448.939401656426</v>
+        <v>4024.010706402922</v>
       </c>
       <c r="R21">
-        <v>76040.45461490782</v>
+        <v>36216.0963576263</v>
       </c>
       <c r="S21">
-        <v>0.032052582929158</v>
+        <v>0.0107761930197704</v>
       </c>
       <c r="T21">
-        <v>0.03205258292915799</v>
+        <v>0.0107761930197704</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H22">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I22">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J22">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N22">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O22">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P22">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q22">
-        <v>135.8196593348271</v>
+        <v>331.1207591403309</v>
       </c>
       <c r="R22">
-        <v>1222.376934013444</v>
+        <v>2980.086832262978</v>
       </c>
       <c r="S22">
-        <v>0.0005152564940146276</v>
+        <v>0.0008867325347001262</v>
       </c>
       <c r="T22">
-        <v>0.0005152564940146273</v>
+        <v>0.0008867325347001262</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H23">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I23">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J23">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>5.3792</v>
       </c>
       <c r="O23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q23">
-        <v>247.5320058104889</v>
+        <v>266.1765825681778</v>
       </c>
       <c r="R23">
-        <v>2227.7880522944</v>
+        <v>2395.5892431136</v>
       </c>
       <c r="S23">
-        <v>0.0009390575274224403</v>
+        <v>0.0007128137672530156</v>
       </c>
       <c r="T23">
-        <v>0.0009390575274224402</v>
+        <v>0.0007128137672530158</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H24">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I24">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J24">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N24">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q24">
-        <v>10747.4673266997</v>
+        <v>16014.18433843976</v>
       </c>
       <c r="R24">
-        <v>96727.20594029732</v>
+        <v>144127.6590459578</v>
       </c>
       <c r="S24">
-        <v>0.04077246520432159</v>
+        <v>0.04288555724034681</v>
       </c>
       <c r="T24">
-        <v>0.04077246520432157</v>
+        <v>0.04288555724034681</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H25">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I25">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J25">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N25">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q25">
-        <v>20737.44806175166</v>
+        <v>23053.31021359083</v>
       </c>
       <c r="R25">
-        <v>186637.0325557649</v>
+        <v>207479.7919223175</v>
       </c>
       <c r="S25">
-        <v>0.07867126773427782</v>
+        <v>0.06173614802043327</v>
       </c>
       <c r="T25">
-        <v>0.07867126773427781</v>
+        <v>0.06173614802043327</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.0495273333333</v>
+        <v>148.4476776666667</v>
       </c>
       <c r="H26">
-        <v>414.148582</v>
+        <v>445.343033</v>
       </c>
       <c r="I26">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="J26">
-        <v>0.1695631047631983</v>
+        <v>0.1235725436926906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N26">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q26">
-        <v>12827.92482795466</v>
+        <v>6479.262683284881</v>
       </c>
       <c r="R26">
-        <v>115451.3234515919</v>
+        <v>58313.36414956393</v>
       </c>
       <c r="S26">
-        <v>0.04866505780316183</v>
+        <v>0.0173512921299574</v>
       </c>
       <c r="T26">
-        <v>0.04866505780316183</v>
+        <v>0.0173512921299574</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H27">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I27">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J27">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N27">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O27">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P27">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q27">
-        <v>68.09002393010644</v>
+        <v>519.276782828355</v>
       </c>
       <c r="R27">
-        <v>612.810215370958</v>
+        <v>4673.491045455195</v>
       </c>
       <c r="S27">
-        <v>0.0002583118466017421</v>
+        <v>0.001390609332509922</v>
       </c>
       <c r="T27">
-        <v>0.0002583118466017421</v>
+        <v>0.001390609332509922</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H28">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I28">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J28">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>5.3792</v>
       </c>
       <c r="O28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q28">
-        <v>124.0944078467555</v>
+        <v>417.4287345169778</v>
       </c>
       <c r="R28">
-        <v>1116.8496706208</v>
+        <v>3756.8586106528</v>
       </c>
       <c r="S28">
-        <v>0.0004707746273778558</v>
+        <v>0.001117862983812607</v>
       </c>
       <c r="T28">
-        <v>0.0004707746273778558</v>
+        <v>0.001117862983812607</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H29">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I29">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J29">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N29">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q29">
-        <v>5387.99251188647</v>
+        <v>25114.08268232721</v>
       </c>
       <c r="R29">
-        <v>48491.93260697823</v>
+        <v>226026.7441409449</v>
       </c>
       <c r="S29">
-        <v>0.02044032612839732</v>
+        <v>0.06725484156108322</v>
       </c>
       <c r="T29">
-        <v>0.02044032612839731</v>
+        <v>0.06725484156108323</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H30">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I30">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J30">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N30">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q30">
-        <v>10396.2367575453</v>
+        <v>36153.12066913963</v>
       </c>
       <c r="R30">
-        <v>93566.13081790764</v>
+        <v>325378.0860222566</v>
       </c>
       <c r="S30">
-        <v>0.03944000838224165</v>
+        <v>0.09681708996891755</v>
       </c>
       <c r="T30">
-        <v>0.03944000838224165</v>
+        <v>0.09681708996891757</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>69.20791633333333</v>
+        <v>232.8015696666667</v>
       </c>
       <c r="H31">
-        <v>207.623749</v>
+        <v>698.404709</v>
       </c>
       <c r="I31">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="J31">
-        <v>0.08500651464989196</v>
+        <v>0.1937913923042855</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N31">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q31">
-        <v>6430.981441028151</v>
+        <v>10161.03819649097</v>
       </c>
       <c r="R31">
-        <v>57878.83296925337</v>
+        <v>91449.34376841869</v>
       </c>
       <c r="S31">
-        <v>0.0243970936652734</v>
+        <v>0.02721098845796222</v>
       </c>
       <c r="T31">
-        <v>0.0243970936652734</v>
+        <v>0.02721098845796222</v>
       </c>
     </row>
   </sheetData>
